--- a/reports/GymDetails.xlsx
+++ b/reports/GymDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="10">
   <si>
     <t>Sort by</t>
   </si>

--- a/reports/GymDetails.xlsx
+++ b/reports/GymDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="10">
   <si>
     <t>Sort by</t>
   </si>

--- a/reports/GymDetails.xlsx
+++ b/reports/GymDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="10">
   <si>
     <t>Sort by</t>
   </si>

--- a/reports/GymDetails.xlsx
+++ b/reports/GymDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="10">
   <si>
     <t>Sort by</t>
   </si>

--- a/reports/GymDetails.xlsx
+++ b/reports/GymDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="10">
   <si>
     <t>Sort by</t>
   </si>

--- a/reports/GymDetails.xlsx
+++ b/reports/GymDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="10">
   <si>
     <t>Sort by</t>
   </si>

--- a/reports/GymDetails.xlsx
+++ b/reports/GymDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="10">
   <si>
     <t>Sort by</t>
   </si>

--- a/reports/GymDetails.xlsx
+++ b/reports/GymDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="10">
   <si>
     <t>Sort by</t>
   </si>
